--- a/Perceivable/WCAG_1.3.2_MeaningfulSequence_Narayanan_Palani_TestCase_v1.xlsx
+++ b/Perceivable/WCAG_1.3.2_MeaningfulSequence_Narayanan_Palani_TestCase_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Udemy_Supreme_Quality\13 Write Accessibility Testing-Test Cases\GithubRepo\webAccessibilityTestCases\Perceivable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B744B6CB-3F73-4174-AA4F-7082BB58A661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95526DD1-1FA2-4BB0-A71D-2FF0BE733E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20730" yWindow="525" windowWidth="15375" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Test Case Worksheet</t>
   </si>
@@ -148,13 +148,6 @@
   </si>
   <si>
     <t>Website should be launched and announced by screen reader successfully</t>
-  </si>
-  <si>
-    <t>Screen reader should read about the image using the 'alternative text' of the image</t>
-  </si>
-  <si>
-    <t>Press Tab from keyboard and navigate inside the website; Use down/up/left/right arrow keys to navigate to the images available in the page
-Note: Avoid using mouse from this step; Keyboard usage is recommended</t>
   </si>
   <si>
     <t>Narayanan Palani</t>
@@ -186,6 +179,21 @@
   </si>
   <si>
     <t>Screen reader should read the page on meaningful sequence when navigated using keyboard keys.</t>
+  </si>
+  <si>
+    <t>Level Classification</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Press Tab (or Shift+Tab to traverse reverse)from keyboard and navigate inside the website; Use down/up/left/right arrow keys to navigate to the images available in the page
+Note: Avoid using mouse from this step; Keyboard usage is recommended</t>
+  </si>
+  <si>
+    <t>Screen reader should read in proper sequence such as top left to bottom right when you navigate.
+Note: If you keep pressing TAB to move to different elements, some elements let you to navigate down and when pressing next TAB result in top most section of the page (instead going down to next item),it can be considered as confused structure or defect in order to get it fixed for a clear flow of sequence. 
+Verification Step: Follow the same sequence in reverse by using SHIFT+TAB to make sure that the reverse sequence is going back to the elements appropriate.</t>
   </si>
 </sst>
 </file>
@@ -722,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
@@ -891,8 +899,12 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
@@ -936,19 +948,19 @@
         <v>32</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="14"/>
@@ -975,7 +987,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="68.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="169.5" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -983,10 +995,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="14"/>
@@ -999,13 +1011,13 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="14"/>
